--- a/StructureDefinition-BeModelMedicationRecordOrder.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordOrder.xlsx
@@ -173,7 +173,7 @@
 </t>
   </si>
   <si>
-    <t>active  | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown medicationrequest Status (Required)</t>
+    <t>Status of the prescription</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.statusReason</t>
@@ -183,13 +183,13 @@
 </t>
   </si>
   <si>
-    <t>Reason for current status medicationRequest Status Reason Codes (Example)</t>
+    <t>Reason for current prescription status</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option  medicationRequest Intent (Required)</t>
+    <t>Intent of the prescription</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.product[x]</t>
@@ -199,7 +199,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>Medication to be taken SNOMED CT Medication Codes (Example)</t>
+    <t>Product prescribed</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.encounter</t>
@@ -209,7 +209,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of encounter/admission/stay</t>
+    <t>Encounter on which the medication was prescribed</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.requester</t>
@@ -219,7 +219,7 @@
 </t>
   </si>
   <si>
-    <t>Who/What requested the Request</t>
+    <t>Who made the prescription</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.reason</t>
@@ -229,7 +229,7 @@
 </t>
   </si>
   <si>
-    <t>Reason or indication for ordering or not ordering the medication Condition/Problem/Diagnosis Codes (Example)</t>
+    <t>Reason or indication for ordering or not ordering the product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.groupIdentifier</t>
@@ -245,7 +245,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication should be taken</t>
+    <t>How the product should be taken/administered</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.note</t>
@@ -265,7 +265,7 @@
 </t>
   </si>
   <si>
-    <t>When request was initially made</t>
+    <t>When prescription was initially made</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.location</t>
@@ -275,7 +275,7 @@
 </t>
   </si>
   <si>
-    <t>Where the request was initially made</t>
+    <t>Where the prescription was initially made</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.treatment</t>
@@ -453,7 +453,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.6015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.15234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-BeModelMedicationRecordOrder.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordOrder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="88">
   <si>
     <t>Path</t>
   </si>
@@ -278,7 +278,7 @@
     <t>Where the prescription was initially made</t>
   </si>
   <si>
-    <t>BeModelMedicationRecordOrder.treatment</t>
+    <t>BeModelMedicationRecordOrder.treatmentPlan</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordOrder.basedOn</t>
+  </si>
+  <si>
+    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -453,7 +459,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2189,8 +2195,108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2200,7 +2306,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecordOrder.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordOrder.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Medication Record Prescription logical model</t>
+  </si>
+  <si>
+    <t>A model for representing a product order</t>
   </si>
   <si>
     <t>Base</t>
@@ -627,7 +630,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -677,7 +682,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -697,7 +702,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -708,7 +713,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -720,13 +725,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -777,13 +782,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -797,7 +802,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -805,10 +810,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -820,13 +825,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -877,13 +882,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -897,7 +902,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -905,10 +910,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -920,13 +925,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -977,13 +982,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -997,7 +1002,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1020,13 +1025,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1077,7 +1082,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1097,7 +1102,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1105,10 +1110,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1120,13 +1125,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1177,13 +1182,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1197,7 +1202,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1205,10 +1210,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1220,13 +1225,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1277,13 +1282,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1297,7 +1302,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1308,7 +1313,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1320,13 +1325,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1377,13 +1382,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1397,7 +1402,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1408,7 +1413,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1420,13 +1425,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1477,13 +1482,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1497,7 +1502,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1520,13 +1525,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1577,7 +1582,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1597,7 +1602,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1608,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1620,13 +1625,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1677,13 +1682,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1697,7 +1702,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1720,13 +1725,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1777,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1797,7 +1802,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1820,13 +1825,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1877,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1897,7 +1902,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1908,7 +1913,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1920,13 +1925,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1977,13 +1982,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -1997,7 +2002,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2008,7 +2013,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2020,13 +2025,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2077,13 +2082,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2097,7 +2102,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2108,7 +2113,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2120,13 +2125,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2177,13 +2182,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2197,7 +2202,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2208,7 +2213,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2220,13 +2225,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2277,13 +2282,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>

--- a/StructureDefinition-BeModelMedicationRecordOrder.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordOrder.xlsx
@@ -137,7 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Prescription logical model</t>
+    <t>[Logical Model] - Prescription</t>
   </si>
   <si>
     <t>A model for representing a product order</t>

--- a/StructureDefinition-BeModelMedicationRecordOrder.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordOrder.xlsx
@@ -140,7 +140,7 @@
     <t>[Logical Model] - Prescription</t>
   </si>
   <si>
-    <t>A model for representing a product order</t>
+    <t>A model for representing a product order.</t>
   </si>
   <si>
     <t>Base</t>

--- a/StructureDefinition-BeModelMedicationRecordOrder.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordOrder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$17</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="86">
   <si>
     <t>Path</t>
   </si>
@@ -137,10 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>[Logical Model] - Prescription</t>
-  </si>
-  <si>
-    <t>A model for representing a product order.</t>
+    <t>Medication Record Prescription logical model</t>
   </si>
   <si>
     <t>Base</t>
@@ -176,7 +173,7 @@
 </t>
   </si>
   <si>
-    <t>Status of the prescription</t>
+    <t>active  | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown medicationrequest Status (Required)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.statusReason</t>
@@ -186,13 +183,13 @@
 </t>
   </si>
   <si>
-    <t>Reason for current prescription status</t>
+    <t>Reason for current status medicationRequest Status Reason Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.intent</t>
   </si>
   <si>
-    <t>Intent of the prescription</t>
+    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option  medicationRequest Intent (Required)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.product[x]</t>
@@ -202,7 +199,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>Product prescribed</t>
+    <t>Medication to be taken SNOMED CT Medication Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.encounter</t>
@@ -212,7 +209,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter on which the medication was prescribed</t>
+    <t>Encounter created as part of encounter/admission/stay</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.requester</t>
@@ -222,7 +219,7 @@
 </t>
   </si>
   <si>
-    <t>Who made the prescription</t>
+    <t>Who/What requested the Request</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.reason</t>
@@ -232,7 +229,7 @@
 </t>
   </si>
   <si>
-    <t>Reason or indication for ordering or not ordering the product</t>
+    <t>Reason or indication for ordering or not ordering the medication Condition/Problem/Diagnosis Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.groupIdentifier</t>
@@ -248,7 +245,7 @@
 </t>
   </si>
   <si>
-    <t>How the product should be taken/administered</t>
+    <t>How the medication should be taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.note</t>
@@ -268,7 +265,7 @@
 </t>
   </si>
   <si>
-    <t>When prescription was initially made</t>
+    <t>When request was initially made</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.location</t>
@@ -278,10 +275,10 @@
 </t>
   </si>
   <si>
-    <t>Where the prescription was initially made</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordOrder.treatmentPlan</t>
+    <t>Where the request was initially made</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordOrder.treatment</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -289,12 +286,6 @@
   </si>
   <si>
     <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordOrder.basedOn</t>
-  </si>
-  <si>
-    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -443,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -462,7 +453,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="117.6015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -630,9 +621,7 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -682,7 +671,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -702,7 +691,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -713,25 +702,25 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="L3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -782,13 +771,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -802,7 +791,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -810,10 +799,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -825,13 +814,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="L4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -882,13 +871,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -902,7 +891,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -910,10 +899,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -925,13 +914,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -982,13 +971,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -1002,7 +991,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1025,13 +1014,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1082,7 +1071,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1102,7 +1091,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1110,10 +1099,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1125,13 +1114,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1182,13 +1171,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1202,7 +1191,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1210,10 +1199,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1225,13 +1214,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1282,13 +1271,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1302,7 +1291,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1313,7 +1302,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1325,13 +1314,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1382,13 +1371,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1402,7 +1391,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1413,7 +1402,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1425,13 +1414,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>66</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1482,13 +1471,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1502,7 +1491,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1525,13 +1514,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>69</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1582,7 +1571,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1602,7 +1591,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1613,25 +1602,25 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1682,13 +1671,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1702,7 +1691,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1725,13 +1714,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1782,7 +1771,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1802,7 +1791,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1825,13 +1814,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1882,7 +1871,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1902,7 +1891,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1913,7 +1902,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1925,13 +1914,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1982,13 +1971,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2002,7 +1991,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2013,7 +2002,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2025,13 +2014,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2082,13 +2071,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2102,7 +2091,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2113,7 +2102,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2125,13 +2114,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2182,13 +2171,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2197,111 +2186,11 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ18">
+  <autoFilter ref="A1:AJ17">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2311,7 +2200,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
+  <conditionalFormatting sqref="A2:AI16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecordOrder.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordOrder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Prescription logical model</t>
+    <t>[Logical Model] - Prescription</t>
+  </si>
+  <si>
+    <t>A model for representing a product order.</t>
   </si>
   <si>
     <t>Base</t>
@@ -173,7 +176,7 @@
 </t>
   </si>
   <si>
-    <t>active  | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown medicationrequest Status (Required)</t>
+    <t>Status of the prescription</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.statusReason</t>
@@ -183,13 +186,13 @@
 </t>
   </si>
   <si>
-    <t>Reason for current status medicationRequest Status Reason Codes (Example)</t>
+    <t>Reason for current prescription status</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option  medicationRequest Intent (Required)</t>
+    <t>Intent of the prescription</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.product[x]</t>
@@ -199,7 +202,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>Medication to be taken SNOMED CT Medication Codes (Example)</t>
+    <t>Product prescribed</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.encounter</t>
@@ -209,7 +212,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of encounter/admission/stay</t>
+    <t>Encounter on which the medication was prescribed</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.requester</t>
@@ -219,7 +222,7 @@
 </t>
   </si>
   <si>
-    <t>Who/What requested the Request</t>
+    <t>Who made the prescription</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.reason</t>
@@ -229,7 +232,7 @@
 </t>
   </si>
   <si>
-    <t>Reason or indication for ordering or not ordering the medication Condition/Problem/Diagnosis Codes (Example)</t>
+    <t>Reason or indication for ordering or not ordering the product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.groupIdentifier</t>
@@ -245,7 +248,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication should be taken</t>
+    <t>How the product should be taken/administered</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.note</t>
@@ -265,7 +268,7 @@
 </t>
   </si>
   <si>
-    <t>When request was initially made</t>
+    <t>When prescription was initially made</t>
   </si>
   <si>
     <t>BeModelMedicationRecordOrder.location</t>
@@ -275,10 +278,10 @@
 </t>
   </si>
   <si>
-    <t>Where the request was initially made</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordOrder.treatment</t>
+    <t>Where the prescription was initially made</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordOrder.treatmentPlan</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -286,6 +289,12 @@
   </si>
   <si>
     <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordOrder.basedOn</t>
+  </si>
+  <si>
+    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -453,7 +462,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.6015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -621,7 +630,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -671,7 +682,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -691,7 +702,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -702,7 +713,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -714,13 +725,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -771,13 +782,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -791,7 +802,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -799,10 +810,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -814,13 +825,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -871,13 +882,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -891,7 +902,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -899,10 +910,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -914,13 +925,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -971,13 +982,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -991,7 +1002,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1014,13 +1025,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1071,7 +1082,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1091,7 +1102,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1099,10 +1110,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1114,13 +1125,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1171,13 +1182,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1191,7 +1202,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1199,10 +1210,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1214,13 +1225,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1271,13 +1282,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1291,7 +1302,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1302,7 +1313,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1314,13 +1325,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1371,13 +1382,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1391,7 +1402,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1402,7 +1413,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1414,13 +1425,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1471,13 +1482,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1491,7 +1502,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1514,13 +1525,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1571,7 +1582,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1591,7 +1602,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1602,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1614,13 +1625,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1671,13 +1682,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1691,7 +1702,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1714,13 +1725,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1771,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1791,7 +1802,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1814,13 +1825,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1871,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1891,7 +1902,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1902,7 +1913,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1914,13 +1925,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1971,13 +1982,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -1991,7 +2002,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2002,7 +2013,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2014,13 +2025,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2071,13 +2082,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2091,7 +2102,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2102,7 +2113,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2114,13 +2125,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2171,13 +2182,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2186,11 +2197,111 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2200,7 +2311,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
